--- a/Data/[LSK]Rabbie Furniture And Facilities-Basic - 3155273482/3155273482.xlsx
+++ b/Data/[LSK]Rabbie Furniture And Facilities-Basic - 3155273482/3155273482.xlsx
@@ -5,16 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\240122\[LSK]Rabbie Furniture And Facilities-Basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\[LSK]Rabbie Furniture And Facilities-Basic - 3155273482\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5824391-19D4-401E-BE9D-E6A1AC955948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CEB308-8E81-4265-8D01-A01462D00330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="38380" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_240212" sheetId="3" r:id="rId1"/>
-    <sheet name="Merge" sheetId="2" r:id="rId2"/>
+    <sheet name="Main_240213" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="578">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1341,9 +1340,6 @@
     <t>A work report that embodies your hard work and your dinner money for tomorrow.</t>
   </si>
   <si>
-    <t>달의 시공</t>
-  </si>
-  <si>
     <t>저품질 플라네타리움 가루 섭취</t>
   </si>
   <si>
@@ -1356,21 +1352,12 @@
     <t>기계에 목재를 넣은 뒤, 달의 공학이 모든 걸 해결해주길 기도합니다.</t>
   </si>
   <si>
-    <t>플라네타리움을 추출하는 중.</t>
-  </si>
-  <si>
     <t>저품질 플라네타륨 x20 제작</t>
   </si>
   <si>
     <t>저품질 플라네타륨 x5 제작</t>
   </si>
   <si>
-    <t>달의 합판 x75개 제작</t>
-  </si>
-  <si>
-    <t>목재를 가공해, 달의 도시에서 건축 용도로 쓰이는 합판으로 만듭니다.</t>
-  </si>
-  <si>
     <t>목재를 가공하는 중</t>
   </si>
   <si>
@@ -1383,15 +1370,9 @@
     <t>급여를 받는 중</t>
   </si>
   <si>
-    <t>달의 합금 x25 주조</t>
-  </si>
-  <si>
     <t>달의 합금을 생산하기 위해 사용 가능한 재료를 활용합니다. 전문 장비를 사용하는 것만큼 속도와 양이 효율적이지는 않지만, 상세한 제련 공정과 적절한 장비로 인해 품질은 여전히 ??보장됩니다.</t>
   </si>
   <si>
-    <t>달의 합금 주조 중.</t>
-  </si>
-  <si>
     <t>인터넷에서 파트타임 알바 찾아보기</t>
   </si>
   <si>
@@ -1425,33 +1406,15 @@
     <t>래비티시 제국의 사무실 등지에서 흔히 볼 수 있는 카펫입니다.</t>
   </si>
   <si>
-    <t>달의 나무바닥</t>
-  </si>
-  <si>
     <t>달의 도시 내부에서 인기가 높은 바닥입니다.</t>
   </si>
   <si>
-    <t>달의 도시 문</t>
-  </si>
-  <si>
     <t>평범한 문입니다.</t>
   </si>
   <si>
-    <t>달의 도시 벽</t>
-  </si>
-  <si>
     <t>미니멀리즘한 벽입니다.</t>
   </si>
   <si>
-    <t>달의 도시 창문벽 (바리게이트)</t>
-  </si>
-  <si>
-    <t>창문이 있는 심플한 벽입니다, 빛을 투과합니다. (*주의 : 이 벽을 외벽으로 사용하면 실내 판정이 뜨지 않아, 실내가 실외로 변합니다. 하지만 내부에서는 외부를, 외부에서는 내부를 볼 수 있습니다. 흥미진진한 총격전을 원하지 않는 사람이 어디 있겠습니까? 특히 타겟이 당신의 상사라면 더더욱 그렇죠.)</t>
-  </si>
-  <si>
-    <t>달의 도시 창문벽</t>
-  </si>
-  <si>
     <t>창문이 있는 심플한 벽입니다, 빛을 투과합니다.</t>
   </si>
   <si>
@@ -1533,45 +1496,21 @@
     <t>수직으로 쌓인 종이상자입니다, 하나만 있을 때보다 더 많은 물건을 보관할 수 있습니다.</t>
   </si>
   <si>
-    <t>달의 침대</t>
-  </si>
-  <si>
     <t>현대적 디자인을 가진 미니멀리즘한 침대입니다. 누워 있으면 별빛 사이를 헤엄치는 꿈을 꿀 것만 같습니다.</t>
   </si>
   <si>
-    <t>더블사이즈 달의 침대</t>
-  </si>
-  <si>
-    <t>현대적 디자인을 가진 모던한 침대입니다. 누워 있으면 우주 사이를 유영하는 꿈을 꿀 것만 같습니다.</t>
-  </si>
-  <si>
-    <t>달의 협탁</t>
-  </si>
-  <si>
     <t>현대적 디자인을 가진 자그만한 협탁입니다. 침대 옆에 두어야 제대로 사용할 수 있습니다.</t>
   </si>
   <si>
-    <t>달의 책상</t>
-  </si>
-  <si>
     <t>현대적 디자인을 가진 고풍스러운 책상입니다.</t>
   </si>
   <si>
-    <t>달의 식탁 의자</t>
-  </si>
-  <si>
     <t>현대적 디자인을 가진 편안하고 세련된 의자입니다.</t>
   </si>
   <si>
-    <t>달의 식탁</t>
-  </si>
-  <si>
     <t>현대적 디자인을 가진 우아한 식탁입니다.</t>
   </si>
   <si>
-    <t>달의 옷장</t>
-  </si>
-  <si>
     <t>현대적 디자인을 가진 옷장입니다. 침대 옆에 두어야 제대로 사용할 수 있습니다.</t>
   </si>
   <si>
@@ -1581,33 +1520,18 @@
     <t>안에서만 열 수 있는 작은 방범창이 달린 창문입니다.</t>
   </si>
   <si>
-    <t>달의 화분</t>
-  </si>
-  <si>
     <t>꽃을 심을 수 있는 작은 화분입니다.</t>
   </si>
   <si>
-    <t>달의 거실등</t>
-  </si>
-  <si>
     <t>세워놓을 수 있는 커다란 등입니다. 집에 따뜻함과 생기를 불어넣어 줍니다.</t>
   </si>
   <si>
-    <t>달의 스탠드</t>
-  </si>
-  <si>
     <t>협탁 위에 두면 좋은 조명입니다. 은은하게 빛을 내뿜습니다.</t>
   </si>
   <si>
-    <t>달의 소파</t>
-  </si>
-  <si>
     <t>커다랗고 푹신푹신한 소파입니다. 앉아 있으면 몽환적인 기분을 느낄 수 있습니다.</t>
   </si>
   <si>
-    <t>달의 벽등</t>
-  </si>
-  <si>
     <t>벽에 달아놓는 용도의 조명입니다. 절제되고 세련된 인상을 줍니다.</t>
   </si>
   <si>
@@ -1659,9 +1583,6 @@
     <t>플라네타륨이 없을 때 사용할 수 있는 최후의 방법으로, 목재 내부에 존재하는 극미량의 플라네타륨을 포집하여 짜내는 기계입니다.</t>
   </si>
   <si>
-    <t>달의 사무용 컴퓨터</t>
-  </si>
-  <si>
     <t>달의 도시 전산망과 직접적으로 연결된 컴퓨터로, 이 곳에서 일거리를 찾거나 외주를 받을 수도 있습니다.</t>
   </si>
   <si>
@@ -1674,9 +1595,6 @@
     <t>{0}을 먹기</t>
   </si>
   <si>
-    <t>{0}을 먹는 중.</t>
-  </si>
-  <si>
     <t>달의 합판</t>
   </si>
   <si>
@@ -1686,27 +1604,12 @@
     <t>달의 합금</t>
   </si>
   <si>
-    <t>주조 과정을 거쳐 태어난 고급 합금입니다. 매우 가볍고 제련하기 쉬우며. 부식, 산화, 열 등에도 강하기에 일반적으로 공장 내 기계에 사용됩니다.</t>
-  </si>
-  <si>
-    <t>녹지 않은 합금</t>
-  </si>
-  <si>
-    <t>저품질 플라네타륨 준비 중</t>
-  </si>
-  <si>
     <t>저품질 플라네타륨을 준비하는 중</t>
   </si>
   <si>
-    <t>미완성된 달의 합판</t>
-  </si>
-  <si>
     <t>완료되지 않은 작업 목록</t>
   </si>
   <si>
-    <t>진행중인 작업</t>
-  </si>
-  <si>
     <t>업무 보고서</t>
   </si>
   <si>
@@ -1734,60 +1637,148 @@
     <t>사용하는 중</t>
   </si>
   <si>
-    <t>Merge [Not chosen]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main Index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
+    <t>月兔合金</t>
+  </si>
+  <si>
+    <t>LSK_RB_Steel.stuffProps.stuffAdjective</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_RB_Steel.stuffProps.stuffAdjective</t>
+  </si>
+  <si>
+    <t>月兔木材</t>
+  </si>
+  <si>
+    <t>LSK_Board.stuffProps.stuffAdjective</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_Board.stuffProps.stuffAdjective</t>
+  </si>
+  <si>
+    <t>달의 가구</t>
+  </si>
+  <si>
+    <t>달의 목재 x75개 제작</t>
+  </si>
+  <si>
+    <t>목재를 가공해, 달의 도시에서 건축 용도로 쓰이는 목재로 만듭니다.</t>
+  </si>
+  <si>
+    <t>달의 합금 x25 제작</t>
+  </si>
+  <si>
+    <t>달의 목재바닥</t>
+  </si>
+  <si>
+    <t>도시 문</t>
+  </si>
+  <si>
+    <t>도시 벽</t>
+  </si>
+  <si>
+    <t>도시 창문벽 (바리게이트)</t>
+  </si>
+  <si>
+    <t>창문이 있는 심플한 벽입니다, 빛을 투과합니다. (*주의: 이 벽을 외벽으로 사용하면 실내 판정이 뜨지 않아, 실내가 실외로 변합니다. 하지만 내부에서는 외부를, 외부에서는 내부를 볼 수 있습니다. 흥미진진한 총격전을 원하지 않는 사람이 어디 있겠습니까? 특히 타겟이 당신의 상사라면 더더욱 그렇죠.)</t>
+  </si>
+  <si>
+    <t>도시 창문벽</t>
+  </si>
+  <si>
+    <t>싱글사이즈 침대</t>
+  </si>
+  <si>
+    <t>더블사이즈 침대</t>
+  </si>
+  <si>
+    <t>현대적 디자인을 가진 모던한 침대입니다. 누워 있으면 우주를 유영하는 꿈을 꿀 것만 같습니다.</t>
+  </si>
+  <si>
+    <t>협탁</t>
+  </si>
+  <si>
+    <t>책상</t>
+  </si>
+  <si>
+    <t>식탁 의자</t>
+  </si>
+  <si>
+    <t>식탁</t>
+  </si>
+  <si>
+    <t>옷장</t>
+  </si>
+  <si>
+    <t>화분</t>
+  </si>
+  <si>
+    <t>거실등</t>
+  </si>
+  <si>
+    <t>스탠드</t>
+  </si>
+  <si>
+    <t>소파</t>
+  </si>
+  <si>
+    <t>더블사이즈 소파</t>
+  </si>
+  <si>
+    <t>일반적인 소파보다 두배 더 커다랗고 두배 더 푹신푹신한 소파입니다. 구름 위에 앉아있는 느낌을 받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>벽등</t>
+  </si>
+  <si>
+    <t>프린터</t>
+  </si>
+  <si>
+    <t>사무실에 이런 거 한 대쯤은 있어야죠, 안 그래요?</t>
+  </si>
+  <si>
+    <t>사무용 컴퓨터</t>
+  </si>
+  <si>
+    <t>달의 목재</t>
+  </si>
+  <si>
+    <t>제련 과정을 거쳐 태어난 고급 합금입니다. 매우 가볍고 제련하기 쉬우며. 부식, 산화, 열 등에도 강하기에 일반적으로 공장 내 기계에 사용됩니다.</t>
+  </si>
+  <si>
+    <t>미완성된 합금</t>
+  </si>
+  <si>
+    <t>저품질 플라네타륨을 준비 중</t>
+  </si>
+  <si>
+    <t>미완성된 달의 목재</t>
   </si>
   <si>
     <t>플라네타리움을 추출하는 중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달의 합금 주조 중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의 합금 제작 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의 합금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{0}을 먹는 중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>月兔合金</t>
-  </si>
-  <si>
-    <t>LSK_RB_Steel.stuffProps.stuffAdjective</t>
-  </si>
-  <si>
-    <t>ThingDef+LSK_RB_Steel.stuffProps.stuffAdjective</t>
-  </si>
-  <si>
-    <t>月兔木材</t>
-  </si>
-  <si>
-    <t>LSK_Board.stuffProps.stuffAdjective</t>
-  </si>
-  <si>
-    <t>ThingDef+LSK_Board.stuffProps.stuffAdjective</t>
-  </si>
-  <si>
-    <t>달의 합판</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달의 합금</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의 목재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1801,35 +1792,21 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1837,35 +1814,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2166,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EB21F7-3ADC-4DF4-96DD-663D253657AB}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2180,11 +2137,10 @@
     <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="77.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,11 +2159,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2221,14 +2174,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A2,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 시공</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2242,14 +2191,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A3,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타륨 x20 제작</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2263,14 +2208,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A4,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>기계에 목재를 넣은 뒤, 달의 공학이 모든 걸 해결해주길 기도합니다.</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2284,14 +2225,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A5,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>플라네타리움을 추출하는 중.</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2305,14 +2242,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A6,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타륨 x5 제작</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2326,14 +2259,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A7,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>기계에 목재를 넣은 뒤, 달의 공학이 모든 걸 해결해주길 기도합니다.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2347,14 +2276,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A8,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>플라네타리움을 추출하는 중.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2368,14 +2293,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A9,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타륨 제작</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2389,14 +2310,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A10,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>기계에 목재를 넣은 뒤, 달의 공학이 모든 걸 해결해주길 기도합니다.</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2410,14 +2327,10 @@
         <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A11,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>플라네타리움을 추출하는 중.</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2431,14 +2344,10 @@
         <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A12,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 합금 x25 주조</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2452,14 +2361,10 @@
         <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A13,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 합금을 생산하기 위해 사용 가능한 재료를 활용합니다. 전문 장비를 사용하는 것만큼 속도와 양이 효율적이지는 않지만, 상세한 제련 공정과 적절한 장비로 인해 품질은 여전히 ??보장됩니다.</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -2473,14 +2378,10 @@
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A14,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 합금 주조 중.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2494,14 +2395,10 @@
         <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A15,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 합판 x75개 제작</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -2515,14 +2412,10 @@
         <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A16,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>목재를 가공해, 달의 도시에서 건축 용도로 쓰이는 합판으로 만듭니다.</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2536,14 +2429,10 @@
         <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A17,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>목재를 가공하는 중</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2557,14 +2446,10 @@
         <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A18,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>인터넷에서 파트타임 알바 찾아보기</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2578,14 +2463,10 @@
         <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A19,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>컴퓨터를 이용해 인터넷에서 간단한 일거리를 찾습니다. 목적 없이 반복적인 작업을 수행하므로 다른 일보다 작업량이 더 많습니다. 완료 후 컴퓨터에서 급여를 청구하는 것도 잊지 마세요.</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2599,14 +2480,10 @@
         <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A20,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>초과근무 중</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -2620,14 +2497,10 @@
         <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A21,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>청사진 그리기</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -2641,14 +2514,10 @@
         <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A22,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>컴퓨터를 이용해 청사진을 그립니다. 완료 후 컴퓨터에서 급여를 청구하는 것도 잊지 마세요.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -2662,14 +2531,10 @@
         <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A23,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>초과근무 중</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2683,14 +2548,10 @@
         <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A24,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>로고 디자인하기</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2704,14 +2565,10 @@
         <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A25,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>컴퓨터를 이용해 로고를 디자인합니다. 완료 후 컴퓨터에서 급여를 청구하는 것도 잊지 마세요.</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -2725,14 +2582,10 @@
         <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A26,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>초과근무 중</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -2746,14 +2599,10 @@
         <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A27,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>레시피 작성하기</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2767,14 +2616,10 @@
         <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A28,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>컴퓨터를 이용해 레시피를 작성합니다. 완료 후 컴퓨터에서 급여를 청구하는 것도 잊지 마세요.</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,14 +2633,10 @@
         <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A29,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>초과근무 중</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -2809,14 +2650,10 @@
         <v>86</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G30" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A30,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>업무 보고서 제출</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -2830,14 +2667,10 @@
         <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A31,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>멀리 떨어져 있는 상사에게 온라인으로 보고서를 제출하고, 급여를 받습니다.</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2851,14 +2684,10 @@
         <v>92</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A32,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>급여를 받는 중</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -2872,14 +2701,10 @@
         <v>96</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G33" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A33,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 사무실 카펫</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -2893,14 +2718,10 @@
         <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A34,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>래비티시 제국의 사무실 등지에서 흔히 볼 수 있는 카펫입니다.</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -2914,14 +2735,10 @@
         <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A35,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 나무바닥</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2935,14 +2752,10 @@
         <v>105</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G36" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A36,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 도시 내부에서 인기가 높은 바닥입니다.</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -2956,14 +2769,10 @@
         <v>109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G37" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A37,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>강철 소파</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -2977,14 +2786,10 @@
         <v>112</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G38" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A38,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>강철로 만들어 엄청나게 단단합니다. 허리 건강엔 별로 좋지 않습니다.</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -2998,14 +2803,10 @@
         <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="G39" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A39,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>강철 스툴</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
@@ -3019,14 +2820,10 @@
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G40" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A40,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>크고, 조금 더 편안하지만, 여전히 삐걱거립니다. 가끔은 흔들의자 같기도 합니다.</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
@@ -3040,14 +2837,10 @@
         <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A41,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>작은 강철 스툴</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -3061,14 +2854,10 @@
         <v>124</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A42,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>아주 작고, 간단하고, 삐걱거립니다. 그래도 맨 바닥에 앉아있는 것보단 낫습니다.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
@@ -3082,14 +2871,10 @@
         <v>127</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A43,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저가형 식탁</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
@@ -3103,14 +2888,10 @@
         <v>130</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A44,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>값싸고 빠르게 만들 수 있습니다. 보기에 좋지는 않습니다.</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
@@ -3124,14 +2905,10 @@
         <v>133</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A45,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저가형 화분</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
@@ -3145,14 +2922,10 @@
         <v>136</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G46" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A46,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>돈이 없을 때, 혹은 맨바닥에서 식물을 기르기는 싫을 때 들여오는 화분입니다.</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -3166,14 +2939,10 @@
         <v>139</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G47" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A47,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저가형 천장등</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>140</v>
       </c>
@@ -3187,14 +2956,10 @@
         <v>142</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A48,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>세련되진 않았지만, 그래도 작동은 합니다.</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
@@ -3208,14 +2973,10 @@
         <v>145</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A49,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저가형 벽등</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>146</v>
       </c>
@@ -3229,14 +2990,10 @@
         <v>142</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G50" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A50,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>가끔은 자동으로 꺼지기도 합니다. 꺼진 것인지 고장 난 것인지는 잘 모르겠지만요.</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -3250,14 +3007,10 @@
         <v>150</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G51" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A51,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 소파</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>151</v>
       </c>
@@ -3271,14 +3024,10 @@
         <v>153</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G52" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A52,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>커다랗고 푹신푹신한 소파입니다. 앉아 있으면 몽환적인 기분을 느낄 수 있습니다.</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
@@ -3292,14 +3041,10 @@
         <v>156</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G53" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A53,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3313,14 +3058,10 @@
         <v>153</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G54" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A54,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -3334,14 +3075,10 @@
         <v>161</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G55" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A55,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 식탁 의자</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
@@ -3355,14 +3092,10 @@
         <v>164</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G56" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A56,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>현대적 디자인을 가진 편안하고 세련된 의자입니다.</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -3376,14 +3109,10 @@
         <v>167</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G57" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A57,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 책상</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
@@ -3397,14 +3126,10 @@
         <v>170</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G58" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A58,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>현대적 디자인을 가진 고풍스러운 책상입니다.</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -3418,14 +3143,10 @@
         <v>173</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G59" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A59,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 식탁</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -3439,14 +3160,10 @@
         <v>176</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G60" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A60,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>현대적 디자인을 가진 우아한 식탁입니다.</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
@@ -3460,14 +3177,10 @@
         <v>179</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G61" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A61,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>방범창</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3481,14 +3194,10 @@
         <v>182</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G62" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A62,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>안에서만 열 수 있는 작은 방범창이 달린 창문입니다.</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -3502,14 +3211,10 @@
         <v>185</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G63" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A63,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 침대</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
@@ -3523,14 +3228,10 @@
         <v>188</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G64" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A64,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>현대적 디자인을 가진 미니멀리즘한 침대입니다. 누워 있으면 별빛 사이를 헤엄치는 꿈을 꿀 것만 같습니다.</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>189</v>
       </c>
@@ -3544,14 +3245,10 @@
         <v>191</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G65" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A65,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>더블사이즈 달의 침대</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>192</v>
       </c>
@@ -3565,14 +3262,10 @@
         <v>188</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G66" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A66,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>현대적 디자인을 가진 모던한 침대입니다. 누워 있으면 우주 사이를 유영하는 꿈을 꿀 것만 같습니다.</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -3586,14 +3279,10 @@
         <v>196</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G67" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A67,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 옷장</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>197</v>
       </c>
@@ -3607,14 +3296,10 @@
         <v>199</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G68" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A68,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>현대적 디자인을 가진 옷장입니다. 침대 옆에 두어야 제대로 사용할 수 있습니다.</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>200</v>
       </c>
@@ -3628,14 +3313,10 @@
         <v>202</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G69" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A69,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 협탁</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -3649,14 +3330,10 @@
         <v>205</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G70" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A70,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>현대적 디자인을 가진 자그만한 협탁입니다. 침대 옆에 두어야 제대로 사용할 수 있습니다.</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>206</v>
       </c>
@@ -3670,14 +3347,10 @@
         <v>208</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G71" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A71,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 거실등</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>209</v>
       </c>
@@ -3691,14 +3364,10 @@
         <v>211</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G72" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A72,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>세워놓을 수 있는 커다란 등입니다. 집에 따뜻함과 생기를 불어넣어 줍니다.</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>212</v>
       </c>
@@ -3712,14 +3381,10 @@
         <v>214</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G73" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A73,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 스탠드</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>215</v>
       </c>
@@ -3733,14 +3398,10 @@
         <v>211</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G74" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A74,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>협탁 위에 두면 좋은 조명입니다. 은은하게 빛을 내뿜습니다.</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>217</v>
       </c>
@@ -3754,14 +3415,10 @@
         <v>219</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G75" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A75,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 벽등</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>220</v>
       </c>
@@ -3775,14 +3432,10 @@
         <v>211</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G76" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A76,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>벽에 달아놓는 용도의 조명입니다. 절제되고 세련된 인상을 줍니다.</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>222</v>
       </c>
@@ -3796,14 +3449,10 @@
         <v>224</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G77" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A77,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 화분</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>225</v>
       </c>
@@ -3817,14 +3466,10 @@
         <v>227</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G78" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A78,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>꽃을 심을 수 있는 작은 화분입니다.</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -3838,14 +3483,10 @@
         <v>230</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G79" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A79,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>종이상자</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>231</v>
       </c>
@@ -3859,14 +3500,10 @@
         <v>233</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G80" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A80,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>독특한 파란색이 돋보이는 종이상자입니다. 물건을 가득 채우면 식탁 대용으로 사용할 수 있을 정도로 견고함을 보장합니다.</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>234</v>
       </c>
@@ -3880,14 +3517,10 @@
         <v>236</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G81" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A81,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>종이상자 뭉치</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>237</v>
       </c>
@@ -3901,14 +3534,10 @@
         <v>239</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G82" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A82,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>종이 상자 더미입니다. 물건이 꽉 찼을 때, 맨 아래에 있는 물건을 꺼낼 수 있을지 고민될 정도로 큰 크기입니다.</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>240</v>
       </c>
@@ -3922,14 +3551,10 @@
         <v>242</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G83" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A83,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>쌓인 종이상자</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>243</v>
       </c>
@@ -3943,14 +3568,10 @@
         <v>245</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G84" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A84,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>수직으로 쌓인 종이상자입니다, 하나만 있을 때보다 더 많은 물건을 보관할 수 있습니다.</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>246</v>
       </c>
@@ -3964,14 +3585,10 @@
         <v>248</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G85" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A85,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>꽉 찬 종이상자</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>249</v>
       </c>
@@ -3985,14 +3602,10 @@
         <v>251</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G86" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A86,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>사용하지 않을 물건들로 가득 찬 파란색 종이상자입니다. 테이블이나 의자로도 사용할 수 있습니다.</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>252</v>
       </c>
@@ -4006,14 +3619,10 @@
         <v>254</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G87" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A87,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>스위치</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>255</v>
       </c>
@@ -4027,14 +3636,10 @@
         <v>257</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G88" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A88,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>장식용 스위치입니다. 실제로 작동하지는 않습니다.</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>258</v>
       </c>
@@ -4048,14 +3653,10 @@
         <v>260</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G89" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A89,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>쓰레기통</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -4069,14 +3670,10 @@
         <v>263</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G90" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A90,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 도시에서 볼 수 있는 쓰레기통입니다. 책임감 있는 달의 시민이라면 분리배출을 잘 실천합시다.</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>264</v>
       </c>
@@ -4090,14 +3687,10 @@
         <v>266</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G91" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A91,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>급수기</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>267</v>
       </c>
@@ -4111,14 +3704,10 @@
         <v>269</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G92" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A92,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>급수기입니다, 아쉽게도 물은 나오지 않습니다.</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>270</v>
       </c>
@@ -4132,14 +3721,10 @@
         <v>272</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G93" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A93,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>경계목</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>273</v>
       </c>
@@ -4153,14 +3738,10 @@
         <v>275</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G94" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A94,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>서로 다른 바닥을 구분짓기 위한 경계목입니다.</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>276</v>
       </c>
@@ -4174,14 +3755,10 @@
         <v>278</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G95" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A95,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>279</v>
       </c>
@@ -4195,14 +3772,10 @@
         <v>281</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G96" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A96,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>282</v>
       </c>
@@ -4216,14 +3789,10 @@
         <v>284</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G97" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A97,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>차고용 내력벽 기둥</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>285</v>
       </c>
@@ -4237,14 +3806,10 @@
         <v>287</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G98" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A98,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>지하주차장에서 흔히 볼 수 있는 기둥입니다.</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>288</v>
       </c>
@@ -4258,14 +3823,10 @@
         <v>290</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G99" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A99,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>내력벽 기둥</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>291</v>
       </c>
@@ -4279,14 +3840,10 @@
         <v>293</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G100" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A100,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>가정집에서 흔히 보이는, 지붕의 무게를 분산시키기 위한 기둥입니다.</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>294</v>
       </c>
@@ -4300,14 +3857,10 @@
         <v>296</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G101" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A101,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 도시 벽</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>297</v>
       </c>
@@ -4321,14 +3874,10 @@
         <v>299</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G102" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A102,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>미니멀리즘한 벽입니다.</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>300</v>
       </c>
@@ -4342,14 +3891,10 @@
         <v>302</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G103" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A103,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 도시 문</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>303</v>
       </c>
@@ -4363,14 +3908,10 @@
         <v>305</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G104" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A104,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>평범한 문입니다.</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>306</v>
       </c>
@@ -4384,14 +3925,10 @@
         <v>308</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G105" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A105,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>유리문</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>309</v>
       </c>
@@ -4405,14 +3942,10 @@
         <v>311</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G106" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A106,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>사무실 등지에서 흔히 사용되는 유리문입니다.</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>312</v>
       </c>
@@ -4426,14 +3959,10 @@
         <v>314</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G107" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A107,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>유리벽</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>315</v>
       </c>
@@ -4447,14 +3976,10 @@
         <v>317</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G108" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A108,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>평범한 유리벽입니다. 가다가 부딪히지 않도록 조심하세요.</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>318</v>
       </c>
@@ -4468,14 +3993,10 @@
         <v>320</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G109" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A109,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>보안문</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>321</v>
       </c>
@@ -4489,14 +4010,10 @@
         <v>323</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G110" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A110,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>일반적으로 사용되는 보안문입니다. 대표적으로 공장 내부에서 사용되며 때로는 차고에서 발견되기도 합니다.</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>324</v>
       </c>
@@ -4510,14 +4027,10 @@
         <v>326</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G111" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A111,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 도시 창문벽 (바리게이트)</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>327</v>
       </c>
@@ -4531,14 +4044,10 @@
         <v>329</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G112" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A112,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>창문이 있는 심플한 벽입니다, 빛을 투과합니다. (*주의 : 이 벽을 외벽으로 사용하면 실내 판정이 뜨지 않아, 실내가 실외로 변합니다. 하지만 내부에서는 외부를, 외부에서는 내부를 볼 수 있습니다. 흥미진진한 총격전을 원하지 않는 사람이 어디 있겠습니까? 특히 타겟이 당신의 상사라면 더더욱 그렇죠.)</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>330</v>
       </c>
@@ -4552,14 +4061,10 @@
         <v>332</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G113" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A113,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 도시 창문벽</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>333</v>
       </c>
@@ -4573,14 +4078,10 @@
         <v>335</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G114" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A114,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>창문이 있는 심플한 벽입니다, 빛을 투과합니다.</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>336</v>
       </c>
@@ -4594,14 +4095,10 @@
         <v>339</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G115" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A115,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 작업대에서 작업을 완료합니다.</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>340</v>
       </c>
@@ -4615,14 +4112,10 @@
         <v>342</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G116" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A116,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>사용</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>343</v>
       </c>
@@ -4636,14 +4129,10 @@
         <v>345</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G117" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A117,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>사용하기</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>346</v>
       </c>
@@ -4657,14 +4146,10 @@
         <v>348</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G118" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A118,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>사무용 컴퓨터에서 작업을 합니다.</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>349</v>
       </c>
@@ -4678,14 +4163,10 @@
         <v>351</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G119" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A119,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>사용하는 중</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>352</v>
       </c>
@@ -4699,14 +4180,10 @@
         <v>354</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G120" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A120,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>사용하기</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>355</v>
       </c>
@@ -4720,14 +4197,10 @@
         <v>357</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G121" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A121,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>급조 플라네타륨 추출기</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>358</v>
       </c>
@@ -4741,14 +4214,10 @@
         <v>360</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G122" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A122,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>플라네타륨이 없을 때 사용할 수 있는 최후의 방법으로, 목재 내부에 존재하는 극미량의 플라네타륨을 포집하여 짜내는 기계입니다.</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>361</v>
       </c>
@@ -4762,14 +4231,10 @@
         <v>363</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G123" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A123,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 사무용 컴퓨터</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>364</v>
       </c>
@@ -4783,14 +4248,10 @@
         <v>366</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G124" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A124,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 도시 전산망과 직접적으로 연결된 컴퓨터로, 이 곳에서 일거리를 찾거나 외주를 받을 수도 있습니다.</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>367</v>
       </c>
@@ -4804,14 +4265,10 @@
         <v>369</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="G125" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A125,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타륨</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>370</v>
       </c>
@@ -4825,14 +4282,10 @@
         <v>372</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G126" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A126,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>플라네타리움이 극도로 적게 함유된 플라네타륨입니다. 래비들의 정신 유지를 위한 최소한의 양만이 함유되어 있으며. 순도가 낮기에 무게와 저장용량 모두 만만치 않습니다. 그나마 유일한 장점은 구하기 쉽다는 것입니다.\n\n타 종족이 섭취한다고 해서 곧바로 중독 증세가 일어나지는 않으나. 많이 섭취한다면 중독될 수도 있습니다.</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>373</v>
       </c>
@@ -4846,14 +4299,10 @@
         <v>375</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G127" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A127,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>{0}을 먹기</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>376</v>
       </c>
@@ -4867,14 +4316,10 @@
         <v>378</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G128" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A128,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>{0}을 먹는 중.</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>379</v>
       </c>
@@ -4888,14 +4333,10 @@
         <v>382</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G129" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A129,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타리움 가루 섭취</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>383</v>
       </c>
@@ -4909,14 +4350,10 @@
         <v>382</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G130" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A130,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타리움 가루 섭취</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>385</v>
       </c>
@@ -4930,14 +4367,10 @@
         <v>387</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G131" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A131,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>최근에 저품질 플라네타륨을 섭취했습니다. 텁텁한 톱밥 맛이 목에서 올라옵니다.</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>388</v>
       </c>
@@ -4951,14 +4384,10 @@
         <v>391</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G132" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A132,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타륨을 먹음</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>392</v>
       </c>
@@ -4972,14 +4401,10 @@
         <v>394</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G133" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A133,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>뭉친 톱밥 맛이 나. 생존을 위한 게 아니라면 누가 이런 걸 먹겠어?</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>395</v>
       </c>
@@ -4993,14 +4418,10 @@
         <v>397</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G134" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A134,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 합판</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>398</v>
       </c>
@@ -5014,35 +4435,27 @@
         <v>400</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="G135" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A135,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>래비티시 제국이 정성스럽게 재배한 고급 목재를 체계적으로 가공하여 더 가볍고, 더 단단하고, 더 불에 강한 소재입니다.\n\n달의 도시에서는 부유층만이 이 목재 가구를 살 수 있고, 평범한 사람들은 대개 저가형 가구들과 함께 평생을 보내게 됩니다.</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G136" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A136,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>401</v>
       </c>
@@ -5056,14 +4469,10 @@
         <v>397</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G137" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A137,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 합판</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>403</v>
       </c>
@@ -5077,14 +4486,10 @@
         <v>405</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G138" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A138,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>달의 합금</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>406</v>
       </c>
@@ -5098,35 +4503,27 @@
         <v>408</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G139" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A139,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>주조 과정을 거쳐 태어난 고급 합금입니다. 매우 가볍고 제련하기 쉬우며. 부식, 산화, 열 등에도 강하기에 일반적으로 공장 내 기계에 사용됩니다.</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G140" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A140,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>409</v>
       </c>
@@ -5140,14 +4537,10 @@
         <v>411</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G141" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A141,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>녹지 않은 합금</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>412</v>
       </c>
@@ -5161,14 +4554,10 @@
         <v>411</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G142" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A142,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>녹지 않은 합금</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>414</v>
       </c>
@@ -5182,14 +4571,10 @@
         <v>416</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G143" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A143,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>미완성된 달의 합판</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>417</v>
       </c>
@@ -5203,14 +4588,10 @@
         <v>416</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G144" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A144,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>미완성된 달의 합판</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>419</v>
       </c>
@@ -5224,14 +4605,10 @@
         <v>421</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G145" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A145,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타륨 준비 중</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>422</v>
       </c>
@@ -5245,14 +4622,10 @@
         <v>421</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G146" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A146,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>저품질 플라네타륨을 준비하는 중</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>424</v>
       </c>
@@ -5266,14 +4639,10 @@
         <v>426</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G147" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A147,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>완료되지 않은 작업 목록</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>427</v>
       </c>
@@ -5287,14 +4656,10 @@
         <v>426</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G148" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A148,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>진행중인 작업</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>429</v>
       </c>
@@ -5308,14 +4673,10 @@
         <v>431</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G149" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A149,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>업무 보고서</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>432</v>
       </c>
@@ -5329,1757 +4690,11 @@
         <v>434</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G150" s="1" t="str">
-        <f>IFERROR(VLOOKUP(A150,Merge!$C$2:$D$144,2,FALSE),"")</f>
-        <v>당신의 노력과 내일을 위한 저녁 식사 비용을 구체화한 업무 보고서입니다.</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08325A43-BE34-4195-A40C-48AA63593CCE}">
-  <dimension ref="C1:E144"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E1" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E2">
-        <f>MATCH(C2,Main_240212!$A$2:$A$150,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E3">
-        <f>MATCH(C3,Main_240212!$A$2:$A$150,0)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4">
-        <f>MATCH(C4,Main_240212!$A$2:$A$150,0)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5">
-        <f>MATCH(C5,Main_240212!$A$2:$A$150,0)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E6">
-        <f>MATCH(C6,Main_240212!$A$2:$A$150,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E7">
-        <f>MATCH(C7,Main_240212!$A$2:$A$150,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E8">
-        <f>MATCH(C8,Main_240212!$A$2:$A$150,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>441</v>
-      </c>
-      <c r="E9">
-        <f>MATCH(C9,Main_240212!$A$2:$A$150,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>439</v>
-      </c>
-      <c r="E10">
-        <f>MATCH(C10,Main_240212!$A$2:$A$150,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>440</v>
-      </c>
-      <c r="E11">
-        <f>MATCH(C11,Main_240212!$A$2:$A$150,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>442</v>
-      </c>
-      <c r="E12">
-        <f>MATCH(C12,Main_240212!$A$2:$A$150,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>439</v>
-      </c>
-      <c r="E13">
-        <f>MATCH(C13,Main_240212!$A$2:$A$150,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14">
-        <f>MATCH(C14,Main_240212!$A$2:$A$150,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>443</v>
-      </c>
-      <c r="E15">
-        <f>MATCH(C15,Main_240212!$A$2:$A$150,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16">
-        <f>MATCH(C16,Main_240212!$A$2:$A$150,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>445</v>
-      </c>
-      <c r="E17">
-        <f>MATCH(C17,Main_240212!$A$2:$A$150,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>446</v>
-      </c>
-      <c r="E18">
-        <f>MATCH(C18,Main_240212!$A$2:$A$150,0)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E19">
-        <f>MATCH(C19,Main_240212!$A$2:$A$150,0)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>448</v>
-      </c>
-      <c r="E20">
-        <f>MATCH(C20,Main_240212!$A$2:$A$150,0)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E21">
-        <f>MATCH(C21,Main_240212!$A$2:$A$150,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>450</v>
-      </c>
-      <c r="E22">
-        <f>MATCH(C22,Main_240212!$A$2:$A$150,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>451</v>
-      </c>
-      <c r="E23">
-        <f>MATCH(C23,Main_240212!$A$2:$A$150,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24">
-        <f>MATCH(C24,Main_240212!$A$2:$A$150,0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>453</v>
-      </c>
-      <c r="E25">
-        <f>MATCH(C25,Main_240212!$A$2:$A$150,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>454</v>
-      </c>
-      <c r="E26">
-        <f>MATCH(C26,Main_240212!$A$2:$A$150,0)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>455</v>
-      </c>
-      <c r="E27">
-        <f>MATCH(C27,Main_240212!$A$2:$A$150,0)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>456</v>
-      </c>
-      <c r="E28">
-        <f>MATCH(C28,Main_240212!$A$2:$A$150,0)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>454</v>
-      </c>
-      <c r="E29">
-        <f>MATCH(C29,Main_240212!$A$2:$A$150,0)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>457</v>
-      </c>
-      <c r="E30">
-        <f>MATCH(C30,Main_240212!$A$2:$A$150,0)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>458</v>
-      </c>
-      <c r="E31">
-        <f>MATCH(C31,Main_240212!$A$2:$A$150,0)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" t="s">
-        <v>454</v>
-      </c>
-      <c r="E32">
-        <f>MATCH(C32,Main_240212!$A$2:$A$150,0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" t="s">
-        <v>459</v>
-      </c>
-      <c r="E33">
-        <f>MATCH(C33,Main_240212!$A$2:$A$150,0)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>460</v>
-      </c>
-      <c r="E34">
-        <f>MATCH(C34,Main_240212!$A$2:$A$150,0)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>454</v>
-      </c>
-      <c r="E35">
-        <f>MATCH(C35,Main_240212!$A$2:$A$150,0)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>461</v>
-      </c>
-      <c r="E36">
-        <f>MATCH(C36,Main_240212!$A$2:$A$150,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>462</v>
-      </c>
-      <c r="E37">
-        <f>MATCH(C37,Main_240212!$A$2:$A$150,0)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>463</v>
-      </c>
-      <c r="E38">
-        <f>MATCH(C38,Main_240212!$A$2:$A$150,0)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>464</v>
-      </c>
-      <c r="E39">
-        <f>MATCH(C39,Main_240212!$A$2:$A$150,0)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" t="s">
-        <v>465</v>
-      </c>
-      <c r="E40">
-        <f>MATCH(C40,Main_240212!$A$2:$A$150,0)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" t="s">
-        <v>466</v>
-      </c>
-      <c r="E41">
-        <f>MATCH(C41,Main_240212!$A$2:$A$150,0)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" t="s">
-        <v>467</v>
-      </c>
-      <c r="E42">
-        <f>MATCH(C42,Main_240212!$A$2:$A$150,0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" t="s">
-        <v>468</v>
-      </c>
-      <c r="E43">
-        <f>MATCH(C43,Main_240212!$A$2:$A$150,0)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
-        <v>324</v>
-      </c>
-      <c r="D44" t="s">
-        <v>469</v>
-      </c>
-      <c r="E44">
-        <f>MATCH(C44,Main_240212!$A$2:$A$150,0)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
-        <v>327</v>
-      </c>
-      <c r="D45" t="s">
-        <v>470</v>
-      </c>
-      <c r="E45">
-        <f>MATCH(C45,Main_240212!$A$2:$A$150,0)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" t="s">
-        <v>471</v>
-      </c>
-      <c r="E46">
-        <f>MATCH(C46,Main_240212!$A$2:$A$150,0)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
-        <v>333</v>
-      </c>
-      <c r="D47" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47">
-        <f>MATCH(C47,Main_240212!$A$2:$A$150,0)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48" t="s">
-        <v>473</v>
-      </c>
-      <c r="E48">
-        <f>MATCH(C48,Main_240212!$A$2:$A$150,0)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" t="s">
-        <v>474</v>
-      </c>
-      <c r="E49">
-        <f>MATCH(C49,Main_240212!$A$2:$A$150,0)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" t="s">
-        <v>475</v>
-      </c>
-      <c r="E50">
-        <f>MATCH(C50,Main_240212!$A$2:$A$150,0)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
-        <v>261</v>
-      </c>
-      <c r="D51" t="s">
-        <v>476</v>
-      </c>
-      <c r="E51">
-        <f>MATCH(C51,Main_240212!$A$2:$A$150,0)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" t="s">
-        <v>477</v>
-      </c>
-      <c r="E52">
-        <f>MATCH(C52,Main_240212!$A$2:$A$150,0)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
-        <v>255</v>
-      </c>
-      <c r="D53" t="s">
-        <v>478</v>
-      </c>
-      <c r="E53">
-        <f>MATCH(C53,Main_240212!$A$2:$A$150,0)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C54" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" t="s">
-        <v>479</v>
-      </c>
-      <c r="E54">
-        <f>MATCH(C54,Main_240212!$A$2:$A$150,0)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>291</v>
-      </c>
-      <c r="D55" t="s">
-        <v>480</v>
-      </c>
-      <c r="E55">
-        <f>MATCH(C55,Main_240212!$A$2:$A$150,0)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C56" t="s">
-        <v>282</v>
-      </c>
-      <c r="D56" t="s">
-        <v>481</v>
-      </c>
-      <c r="E56">
-        <f>MATCH(C56,Main_240212!$A$2:$A$150,0)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C57" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" t="s">
-        <v>482</v>
-      </c>
-      <c r="E57">
-        <f>MATCH(C57,Main_240212!$A$2:$A$150,0)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
-        <v>312</v>
-      </c>
-      <c r="D58" t="s">
-        <v>483</v>
-      </c>
-      <c r="E58">
-        <f>MATCH(C58,Main_240212!$A$2:$A$150,0)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C59" t="s">
-        <v>315</v>
-      </c>
-      <c r="D59" t="s">
-        <v>484</v>
-      </c>
-      <c r="E59">
-        <f>MATCH(C59,Main_240212!$A$2:$A$150,0)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C60" t="s">
-        <v>306</v>
-      </c>
-      <c r="D60" t="s">
-        <v>485</v>
-      </c>
-      <c r="E60">
-        <f>MATCH(C60,Main_240212!$A$2:$A$150,0)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C61" t="s">
-        <v>309</v>
-      </c>
-      <c r="D61" t="s">
-        <v>486</v>
-      </c>
-      <c r="E61">
-        <f>MATCH(C61,Main_240212!$A$2:$A$150,0)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" t="s">
-        <v>487</v>
-      </c>
-      <c r="E62">
-        <f>MATCH(C62,Main_240212!$A$2:$A$150,0)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" t="s">
-        <v>488</v>
-      </c>
-      <c r="E63">
-        <f>MATCH(C63,Main_240212!$A$2:$A$150,0)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" t="s">
-        <v>489</v>
-      </c>
-      <c r="E64">
-        <f>MATCH(C64,Main_240212!$A$2:$A$150,0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" t="s">
-        <v>490</v>
-      </c>
-      <c r="E65">
-        <f>MATCH(C65,Main_240212!$A$2:$A$150,0)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
-        <v>228</v>
-      </c>
-      <c r="D66" t="s">
-        <v>491</v>
-      </c>
-      <c r="E66">
-        <f>MATCH(C66,Main_240212!$A$2:$A$150,0)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C67" t="s">
-        <v>231</v>
-      </c>
-      <c r="D67" t="s">
-        <v>492</v>
-      </c>
-      <c r="E67">
-        <f>MATCH(C67,Main_240212!$A$2:$A$150,0)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C68" t="s">
-        <v>246</v>
-      </c>
-      <c r="D68" t="s">
-        <v>493</v>
-      </c>
-      <c r="E68">
-        <f>MATCH(C68,Main_240212!$A$2:$A$150,0)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C69" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" t="s">
-        <v>494</v>
-      </c>
-      <c r="E69">
-        <f>MATCH(C69,Main_240212!$A$2:$A$150,0)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C70" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" t="s">
-        <v>495</v>
-      </c>
-      <c r="E70">
-        <f>MATCH(C70,Main_240212!$A$2:$A$150,0)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C71" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" t="s">
-        <v>496</v>
-      </c>
-      <c r="E71">
-        <f>MATCH(C71,Main_240212!$A$2:$A$150,0)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C72" t="s">
-        <v>240</v>
-      </c>
-      <c r="D72" t="s">
-        <v>497</v>
-      </c>
-      <c r="E72">
-        <f>MATCH(C72,Main_240212!$A$2:$A$150,0)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C73" t="s">
-        <v>243</v>
-      </c>
-      <c r="D73" t="s">
-        <v>498</v>
-      </c>
-      <c r="E73">
-        <f>MATCH(C73,Main_240212!$A$2:$A$150,0)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" t="s">
-        <v>499</v>
-      </c>
-      <c r="E74">
-        <f>MATCH(C74,Main_240212!$A$2:$A$150,0)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" t="s">
-        <v>500</v>
-      </c>
-      <c r="E75">
-        <f>MATCH(C75,Main_240212!$A$2:$A$150,0)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C76" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" t="s">
-        <v>501</v>
-      </c>
-      <c r="E76">
-        <f>MATCH(C76,Main_240212!$A$2:$A$150,0)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" t="s">
-        <v>502</v>
-      </c>
-      <c r="E77">
-        <f>MATCH(C77,Main_240212!$A$2:$A$150,0)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C78" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" t="s">
-        <v>503</v>
-      </c>
-      <c r="E78">
-        <f>MATCH(C78,Main_240212!$A$2:$A$150,0)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C79" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" t="s">
-        <v>504</v>
-      </c>
-      <c r="E79">
-        <f>MATCH(C79,Main_240212!$A$2:$A$150,0)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>505</v>
-      </c>
-      <c r="E80">
-        <f>MATCH(C80,Main_240212!$A$2:$A$150,0)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C81" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" t="s">
-        <v>506</v>
-      </c>
-      <c r="E81">
-        <f>MATCH(C81,Main_240212!$A$2:$A$150,0)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" t="s">
-        <v>507</v>
-      </c>
-      <c r="E82">
-        <f>MATCH(C82,Main_240212!$A$2:$A$150,0)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C83" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" t="s">
-        <v>508</v>
-      </c>
-      <c r="E83">
-        <f>MATCH(C83,Main_240212!$A$2:$A$150,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" t="s">
-        <v>509</v>
-      </c>
-      <c r="E84">
-        <f>MATCH(C84,Main_240212!$A$2:$A$150,0)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" t="s">
-        <v>510</v>
-      </c>
-      <c r="E85">
-        <f>MATCH(C85,Main_240212!$A$2:$A$150,0)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C86" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" t="s">
-        <v>511</v>
-      </c>
-      <c r="E86">
-        <f>MATCH(C86,Main_240212!$A$2:$A$150,0)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" t="s">
-        <v>512</v>
-      </c>
-      <c r="E87">
-        <f>MATCH(C87,Main_240212!$A$2:$A$150,0)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C88" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" t="s">
-        <v>513</v>
-      </c>
-      <c r="E88">
-        <f>MATCH(C88,Main_240212!$A$2:$A$150,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" t="s">
-        <v>514</v>
-      </c>
-      <c r="E89">
-        <f>MATCH(C89,Main_240212!$A$2:$A$150,0)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C90" t="s">
-        <v>222</v>
-      </c>
-      <c r="D90" t="s">
-        <v>515</v>
-      </c>
-      <c r="E90">
-        <f>MATCH(C90,Main_240212!$A$2:$A$150,0)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C91" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" t="s">
-        <v>516</v>
-      </c>
-      <c r="E91">
-        <f>MATCH(C91,Main_240212!$A$2:$A$150,0)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C92" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" t="s">
-        <v>517</v>
-      </c>
-      <c r="E92">
-        <f>MATCH(C92,Main_240212!$A$2:$A$150,0)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C93" t="s">
-        <v>209</v>
-      </c>
-      <c r="D93" t="s">
-        <v>518</v>
-      </c>
-      <c r="E93">
-        <f>MATCH(C93,Main_240212!$A$2:$A$150,0)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" t="s">
-        <v>519</v>
-      </c>
-      <c r="E94">
-        <f>MATCH(C94,Main_240212!$A$2:$A$150,0)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C95" t="s">
-        <v>215</v>
-      </c>
-      <c r="D95" t="s">
-        <v>520</v>
-      </c>
-      <c r="E95">
-        <f>MATCH(C95,Main_240212!$A$2:$A$150,0)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C96" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" t="s">
-        <v>521</v>
-      </c>
-      <c r="E96">
-        <f>MATCH(C96,Main_240212!$A$2:$A$150,0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" t="s">
-        <v>522</v>
-      </c>
-      <c r="E97">
-        <f>MATCH(C97,Main_240212!$A$2:$A$150,0)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C98" t="s">
-        <v>217</v>
-      </c>
-      <c r="D98" t="s">
-        <v>523</v>
-      </c>
-      <c r="E98">
-        <f>MATCH(C98,Main_240212!$A$2:$A$150,0)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C99" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" t="s">
-        <v>524</v>
-      </c>
-      <c r="E99">
-        <f>MATCH(C99,Main_240212!$A$2:$A$150,0)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C100" t="s">
-        <v>264</v>
-      </c>
-      <c r="D100" t="s">
-        <v>525</v>
-      </c>
-      <c r="E100">
-        <f>MATCH(C100,Main_240212!$A$2:$A$150,0)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C101" t="s">
-        <v>267</v>
-      </c>
-      <c r="D101" t="s">
-        <v>526</v>
-      </c>
-      <c r="E101">
-        <f>MATCH(C101,Main_240212!$A$2:$A$150,0)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C102" t="s">
-        <v>137</v>
-      </c>
-      <c r="D102" t="s">
-        <v>527</v>
-      </c>
-      <c r="E102">
-        <f>MATCH(C102,Main_240212!$A$2:$A$150,0)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C103" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" t="s">
-        <v>528</v>
-      </c>
-      <c r="E103">
-        <f>MATCH(C103,Main_240212!$A$2:$A$150,0)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D104" t="s">
-        <v>529</v>
-      </c>
-      <c r="E104">
-        <f>MATCH(C104,Main_240212!$A$2:$A$150,0)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C105" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" t="s">
-        <v>530</v>
-      </c>
-      <c r="E105">
-        <f>MATCH(C105,Main_240212!$A$2:$A$150,0)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C106" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" t="s">
-        <v>531</v>
-      </c>
-      <c r="E106">
-        <f>MATCH(C106,Main_240212!$A$2:$A$150,0)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" t="s">
-        <v>532</v>
-      </c>
-      <c r="E107">
-        <f>MATCH(C107,Main_240212!$A$2:$A$150,0)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C108" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" t="s">
-        <v>533</v>
-      </c>
-      <c r="E108">
-        <f>MATCH(C108,Main_240212!$A$2:$A$150,0)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C109" t="s">
-        <v>134</v>
-      </c>
-      <c r="D109" t="s">
-        <v>534</v>
-      </c>
-      <c r="E109">
-        <f>MATCH(C109,Main_240212!$A$2:$A$150,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C110" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" t="s">
-        <v>535</v>
-      </c>
-      <c r="E110">
-        <f>MATCH(C110,Main_240212!$A$2:$A$150,0)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C111" t="s">
-        <v>116</v>
-      </c>
-      <c r="D111" t="s">
-        <v>536</v>
-      </c>
-      <c r="E111">
-        <f>MATCH(C111,Main_240212!$A$2:$A$150,0)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C112" t="s">
-        <v>318</v>
-      </c>
-      <c r="D112" t="s">
-        <v>537</v>
-      </c>
-      <c r="E112">
-        <f>MATCH(C112,Main_240212!$A$2:$A$150,0)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C113" t="s">
-        <v>321</v>
-      </c>
-      <c r="D113" t="s">
-        <v>538</v>
-      </c>
-      <c r="E113">
-        <f>MATCH(C113,Main_240212!$A$2:$A$150,0)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C114" t="s">
-        <v>355</v>
-      </c>
-      <c r="D114" t="s">
-        <v>539</v>
-      </c>
-      <c r="E114">
-        <f>MATCH(C114,Main_240212!$A$2:$A$150,0)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C115" t="s">
-        <v>358</v>
-      </c>
-      <c r="D115" t="s">
-        <v>540</v>
-      </c>
-      <c r="E115">
-        <f>MATCH(C115,Main_240212!$A$2:$A$150,0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C116" t="s">
-        <v>361</v>
-      </c>
-      <c r="D116" t="s">
-        <v>541</v>
-      </c>
-      <c r="E116">
-        <f>MATCH(C116,Main_240212!$A$2:$A$150,0)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C117" t="s">
-        <v>364</v>
-      </c>
-      <c r="D117" t="s">
-        <v>542</v>
-      </c>
-      <c r="E117">
-        <f>MATCH(C117,Main_240212!$A$2:$A$150,0)</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
-        <v>367</v>
-      </c>
-      <c r="D118" t="s">
-        <v>543</v>
-      </c>
-      <c r="E118">
-        <f>MATCH(C118,Main_240212!$A$2:$A$150,0)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C119" t="s">
-        <v>370</v>
-      </c>
-      <c r="D119" t="s">
-        <v>544</v>
-      </c>
-      <c r="E119">
-        <f>MATCH(C119,Main_240212!$A$2:$A$150,0)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C120" t="s">
-        <v>373</v>
-      </c>
-      <c r="D120" t="s">
-        <v>545</v>
-      </c>
-      <c r="E120">
-        <f>MATCH(C120,Main_240212!$A$2:$A$150,0)</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C121" t="s">
-        <v>376</v>
-      </c>
-      <c r="D121" t="s">
-        <v>546</v>
-      </c>
-      <c r="E121">
-        <f>MATCH(C121,Main_240212!$A$2:$A$150,0)</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C122" t="s">
-        <v>395</v>
-      </c>
-      <c r="D122" t="s">
-        <v>547</v>
-      </c>
-      <c r="E122">
-        <f>MATCH(C122,Main_240212!$A$2:$A$150,0)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C123" t="s">
-        <v>398</v>
-      </c>
-      <c r="D123" t="s">
-        <v>548</v>
-      </c>
-      <c r="E123">
-        <f>MATCH(C123,Main_240212!$A$2:$A$150,0)</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C124" t="s">
-        <v>401</v>
-      </c>
-      <c r="D124" t="s">
-        <v>547</v>
-      </c>
-      <c r="E124">
-        <f>MATCH(C124,Main_240212!$A$2:$A$150,0)</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C125" t="s">
-        <v>403</v>
-      </c>
-      <c r="D125" t="s">
-        <v>549</v>
-      </c>
-      <c r="E125">
-        <f>MATCH(C125,Main_240212!$A$2:$A$150,0)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C126" t="s">
-        <v>406</v>
-      </c>
-      <c r="D126" t="s">
-        <v>550</v>
-      </c>
-      <c r="E126">
-        <f>MATCH(C126,Main_240212!$A$2:$A$150,0)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C127" t="s">
-        <v>409</v>
-      </c>
-      <c r="D127" t="s">
-        <v>551</v>
-      </c>
-      <c r="E127">
-        <f>MATCH(C127,Main_240212!$A$2:$A$150,0)</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C128" t="s">
-        <v>412</v>
-      </c>
-      <c r="D128" t="s">
-        <v>551</v>
-      </c>
-      <c r="E128">
-        <f>MATCH(C128,Main_240212!$A$2:$A$150,0)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C129" t="s">
-        <v>419</v>
-      </c>
-      <c r="D129" t="s">
-        <v>552</v>
-      </c>
-      <c r="E129">
-        <f>MATCH(C129,Main_240212!$A$2:$A$150,0)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C130" t="s">
-        <v>422</v>
-      </c>
-      <c r="D130" t="s">
-        <v>553</v>
-      </c>
-      <c r="E130">
-        <f>MATCH(C130,Main_240212!$A$2:$A$150,0)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C131" t="s">
-        <v>414</v>
-      </c>
-      <c r="D131" t="s">
-        <v>554</v>
-      </c>
-      <c r="E131">
-        <f>MATCH(C131,Main_240212!$A$2:$A$150,0)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C132" t="s">
-        <v>417</v>
-      </c>
-      <c r="D132" t="s">
-        <v>554</v>
-      </c>
-      <c r="E132">
-        <f>MATCH(C132,Main_240212!$A$2:$A$150,0)</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C133" t="s">
-        <v>424</v>
-      </c>
-      <c r="D133" t="s">
-        <v>555</v>
-      </c>
-      <c r="E133">
-        <f>MATCH(C133,Main_240212!$A$2:$A$150,0)</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C134" t="s">
-        <v>427</v>
-      </c>
-      <c r="D134" t="s">
-        <v>556</v>
-      </c>
-      <c r="E134">
-        <f>MATCH(C134,Main_240212!$A$2:$A$150,0)</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C135" t="s">
-        <v>429</v>
-      </c>
-      <c r="D135" t="s">
-        <v>557</v>
-      </c>
-      <c r="E135">
-        <f>MATCH(C135,Main_240212!$A$2:$A$150,0)</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C136" t="s">
-        <v>432</v>
-      </c>
-      <c r="D136" t="s">
-        <v>558</v>
-      </c>
-      <c r="E136">
-        <f>MATCH(C136,Main_240212!$A$2:$A$150,0)</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C137" t="s">
-        <v>388</v>
-      </c>
-      <c r="D137" t="s">
-        <v>559</v>
-      </c>
-      <c r="E137">
-        <f>MATCH(C137,Main_240212!$A$2:$A$150,0)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C138" t="s">
-        <v>392</v>
-      </c>
-      <c r="D138" t="s">
-        <v>560</v>
-      </c>
-      <c r="E138">
-        <f>MATCH(C138,Main_240212!$A$2:$A$150,0)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C139" t="s">
-        <v>336</v>
-      </c>
-      <c r="D139" t="s">
-        <v>561</v>
-      </c>
-      <c r="E139">
-        <f>MATCH(C139,Main_240212!$A$2:$A$150,0)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C140" t="s">
-        <v>343</v>
-      </c>
-      <c r="D140" t="s">
-        <v>562</v>
-      </c>
-      <c r="E140">
-        <f>MATCH(C140,Main_240212!$A$2:$A$150,0)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C141" t="s">
-        <v>340</v>
-      </c>
-      <c r="D141" t="s">
-        <v>563</v>
-      </c>
-      <c r="E141">
-        <f>MATCH(C141,Main_240212!$A$2:$A$150,0)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C142" t="s">
-        <v>346</v>
-      </c>
-      <c r="D142" t="s">
-        <v>564</v>
-      </c>
-      <c r="E142">
-        <f>MATCH(C142,Main_240212!$A$2:$A$150,0)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C143" t="s">
-        <v>352</v>
-      </c>
-      <c r="D143" t="s">
-        <v>562</v>
-      </c>
-      <c r="E143">
-        <f>MATCH(C143,Main_240212!$A$2:$A$150,0)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C144" t="s">
-        <v>349</v>
-      </c>
-      <c r="D144" t="s">
-        <v>565</v>
-      </c>
-      <c r="E144">
-        <f>MATCH(C144,Main_240212!$A$2:$A$150,0)</f>
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/[LSK]Rabbie Furniture And Facilities-Basic - 3155273482/3155273482.xlsx
+++ b/Data/[LSK]Rabbie Furniture And Facilities-Basic - 3155273482/3155273482.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\[LSK]Rabbie Furniture And Facilities-Basic - 3155273482\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\RMK\Data\[LSK]Rabbie Furniture And Facilities-Basic - 3155273482\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CEB308-8E81-4265-8D01-A01462D00330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B6D647-EF31-46F8-BD08-6D503E559DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_240213" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="616">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1772,13 +1795,393 @@
   <si>
     <t>달의 목재</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라네타리움을 추출하는 중.</t>
+  </si>
+  <si>
+    <t>달의 합금을 생산하기 위해 사용 가능한 재료를 활용합니다. 전문 장비를 사용하는 것만큼 속도와 양이 효율적이지는 않지만, 상세한 제련 공정과 적절한 장비로 인해 품질은 여전히 ​​보장됩니다.</t>
+  </si>
+  <si>
+    <t>달의 합금 제작 중.</t>
+  </si>
+  <si>
+    <t>일반적인 소파보다 두배 더 커다랗고 푹신푹신한 소파입니다. 구름 위에 앉아있는 느낌을 받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Meal_Sideboard.label</t>
+  </si>
+  <si>
+    <t>음식 선반</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Meal_Sideboard.description</t>
+  </si>
+  <si>
+    <t>장식용 음식 선반입니다. 안에 뭐가 있는지 볼까요... 여기도 당근, 저기도 당근, 온통 당근이군요. 흠.</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_RB_Item_Shelf.label</t>
+  </si>
+  <si>
+    <t>선반</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_RB_Item_Shelf.description</t>
+  </si>
+  <si>
+    <t>달의 도시 창고에서 볼 수 있는 선반입니다. 맨 위쪽은 아무래도 평범한 래비들에겐 조금 높은 것 같습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Bookshelf.label</t>
+  </si>
+  <si>
+    <t>책장</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Bookshelf.description</t>
+  </si>
+  <si>
+    <t>여러 가지 종류의 책이 꽂혀 있는 책장입니다, 자기 전에 읽기 좋습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Bookshelf_empty.label</t>
+  </si>
+  <si>
+    <t>책장(비어 있음)</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Bookshelf_empty.description</t>
+  </si>
+  <si>
+    <t>텅 비어있는 책장입니다. 가끔은 비워두는 것도 나쁘지 않죠.</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Mirror.label</t>
+  </si>
+  <si>
+    <t>거울</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_SHS_Mirror.description</t>
+  </si>
+  <si>
+    <t>래비들이 옷을 갈아입을 때 사용하는 거울입니다.\n\n이데올로기 DLC가 있다면, 이 곳에서 외형을 바꿀 수 있습니다.</t>
+  </si>
+  <si>
+    <t>{0}을 먹는 중.</t>
+  </si>
+  <si>
+    <t>ThingDef+LSK_Board.tools.log.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장식용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선반입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뭐가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>볼까요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홍당무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홍당무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홍당무 뿐이군요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSK_SHS_Meal_Sideboard.label</t>
+  </si>
+  <si>
+    <t>LSK_SHS_Meal_Sideboard.description</t>
+  </si>
+  <si>
+    <t>LSK_RB_Item_Shelf.label</t>
+  </si>
+  <si>
+    <t>LSK_RB_Item_Shelf.description</t>
+  </si>
+  <si>
+    <t>LSK_SHS_Bookshelf.label</t>
+  </si>
+  <si>
+    <t>LSK_SHS_Bookshelf.description</t>
+  </si>
+  <si>
+    <t>LSK_SHS_Bookshelf_empty.label</t>
+  </si>
+  <si>
+    <t>LSK_SHS_Bookshelf_empty.description</t>
+  </si>
+  <si>
+    <t>LSK_SHS_Mirror.label</t>
+  </si>
+  <si>
+    <t>LSK_SHS_Mirror.description</t>
+  </si>
+  <si>
+    <t>LSK_Board.tools.log.label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1794,6 +2197,27 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1818,9 +2242,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2123,24 +2553,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EB21F7-3ADC-4DF4-96DD-663D253657AB}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="72.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="77.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2607,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2624,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2211,7 +2641,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2658,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2245,7 +2675,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2262,7 +2692,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2709,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2296,7 +2726,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2313,7 +2743,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +2760,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2347,7 +2777,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2794,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -2381,7 +2811,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2398,7 +2828,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -2415,7 +2845,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2432,7 +2862,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2449,7 +2879,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2466,7 +2896,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,7 +2913,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -2500,7 +2930,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -2517,7 +2947,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -2534,7 +2964,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2551,7 +2981,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2568,7 +2998,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -2585,7 +3015,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -2602,7 +3032,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2619,7 +3049,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2636,7 +3066,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -2653,7 +3083,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -2670,7 +3100,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2687,7 +3117,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -2704,7 +3134,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -2721,7 +3151,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -2738,7 +3168,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2755,7 +3185,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -2772,7 +3202,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -2789,7 +3219,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -2806,7 +3236,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
@@ -2823,7 +3253,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
@@ -2840,7 +3270,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -2857,7 +3287,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
@@ -2874,7 +3304,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
@@ -2891,7 +3321,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
@@ -2908,7 +3338,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
@@ -2925,7 +3355,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -2942,7 +3372,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>140</v>
       </c>
@@ -2959,7 +3389,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
@@ -2976,7 +3406,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>146</v>
       </c>
@@ -2993,7 +3423,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -3010,7 +3440,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>151</v>
       </c>
@@ -3027,7 +3457,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
@@ -3044,7 +3474,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3061,7 +3491,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -3078,7 +3508,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
@@ -3095,7 +3525,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -3112,7 +3542,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
@@ -3129,7 +3559,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -3146,7 +3576,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -3163,7 +3593,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
@@ -3180,7 +3610,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3197,7 +3627,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -3214,7 +3644,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
@@ -3231,7 +3661,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>189</v>
       </c>
@@ -3248,7 +3678,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>192</v>
       </c>
@@ -3265,7 +3695,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -3282,7 +3712,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>197</v>
       </c>
@@ -3299,7 +3729,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>200</v>
       </c>
@@ -3316,7 +3746,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -3333,7 +3763,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>206</v>
       </c>
@@ -3350,7 +3780,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>209</v>
       </c>
@@ -3367,7 +3797,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>212</v>
       </c>
@@ -3384,7 +3814,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>215</v>
       </c>
@@ -3401,7 +3831,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>217</v>
       </c>
@@ -3418,7 +3848,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>220</v>
       </c>
@@ -3435,7 +3865,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>222</v>
       </c>
@@ -3452,7 +3882,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>225</v>
       </c>
@@ -3469,7 +3899,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -3486,7 +3916,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>231</v>
       </c>
@@ -3503,7 +3933,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>234</v>
       </c>
@@ -3520,7 +3950,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>237</v>
       </c>
@@ -3537,7 +3967,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>240</v>
       </c>
@@ -3554,7 +3984,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>243</v>
       </c>
@@ -3571,7 +4001,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>246</v>
       </c>
@@ -3588,7 +4018,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>249</v>
       </c>
@@ -3605,7 +4035,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>252</v>
       </c>
@@ -3622,7 +4052,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>255</v>
       </c>
@@ -3639,7 +4069,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>258</v>
       </c>
@@ -3656,7 +4086,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>261</v>
       </c>
@@ -3673,7 +4103,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>264</v>
       </c>
@@ -3690,7 +4120,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>267</v>
       </c>
@@ -3707,7 +4137,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>270</v>
       </c>
@@ -3724,7 +4154,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>273</v>
       </c>
@@ -3741,7 +4171,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>276</v>
       </c>
@@ -3758,7 +4188,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>279</v>
       </c>
@@ -3775,7 +4205,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>282</v>
       </c>
@@ -3792,7 +4222,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>285</v>
       </c>
@@ -3809,7 +4239,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>288</v>
       </c>
@@ -3826,7 +4256,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>291</v>
       </c>
@@ -3843,7 +4273,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>294</v>
       </c>
@@ -3860,7 +4290,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>297</v>
       </c>
@@ -3877,7 +4307,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>300</v>
       </c>
@@ -3894,7 +4324,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>303</v>
       </c>
@@ -3911,7 +4341,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>306</v>
       </c>
@@ -3928,7 +4358,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>309</v>
       </c>
@@ -3945,7 +4375,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>312</v>
       </c>
@@ -3962,7 +4392,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>315</v>
       </c>
@@ -3979,7 +4409,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>318</v>
       </c>
@@ -3996,7 +4426,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>321</v>
       </c>
@@ -4013,7 +4443,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>324</v>
       </c>
@@ -4030,7 +4460,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>327</v>
       </c>
@@ -4047,7 +4477,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>330</v>
       </c>
@@ -4064,7 +4494,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>333</v>
       </c>
@@ -4081,7 +4511,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>336</v>
       </c>
@@ -4098,7 +4528,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>340</v>
       </c>
@@ -4115,7 +4545,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>343</v>
       </c>
@@ -4132,7 +4562,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>346</v>
       </c>
@@ -4149,7 +4579,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>349</v>
       </c>
@@ -4166,7 +4596,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>352</v>
       </c>
@@ -4183,7 +4613,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
         <v>355</v>
       </c>
@@ -4200,7 +4630,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
         <v>358</v>
       </c>
@@ -4217,7 +4647,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
         <v>361</v>
       </c>
@@ -4234,7 +4664,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
         <v>364</v>
       </c>
@@ -4251,7 +4681,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
         <v>367</v>
       </c>
@@ -4268,7 +4698,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
         <v>370</v>
       </c>
@@ -4285,7 +4715,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
         <v>373</v>
       </c>
@@ -4302,7 +4732,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
         <v>376</v>
       </c>
@@ -4319,7 +4749,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>379</v>
       </c>
@@ -4336,7 +4766,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>383</v>
       </c>
@@ -4353,7 +4783,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
         <v>385</v>
       </c>
@@ -4370,7 +4800,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
         <v>388</v>
       </c>
@@ -4387,7 +4817,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
         <v>392</v>
       </c>
@@ -4404,7 +4834,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>395</v>
       </c>
@@ -4421,7 +4851,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
         <v>398</v>
       </c>
@@ -4438,7 +4868,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>539</v>
       </c>
@@ -4455,7 +4885,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>401</v>
       </c>
@@ -4472,7 +4902,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>403</v>
       </c>
@@ -4489,7 +4919,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>406</v>
       </c>
@@ -4506,7 +4936,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>536</v>
       </c>
@@ -4523,7 +4953,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>409</v>
       </c>
@@ -4540,7 +4970,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
         <v>412</v>
       </c>
@@ -4557,7 +4987,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>414</v>
       </c>
@@ -4574,7 +5004,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>417</v>
       </c>
@@ -4591,7 +5021,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
         <v>419</v>
       </c>
@@ -4608,7 +5038,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>422</v>
       </c>
@@ -4625,7 +5055,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
         <v>424</v>
       </c>
@@ -4642,7 +5072,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
         <v>427</v>
       </c>
@@ -4659,7 +5089,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
         <v>429</v>
       </c>
@@ -4676,7 +5106,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
         <v>432</v>
       </c>
@@ -4691,10 +5121,2068 @@
       </c>
       <c r="F150" s="1" t="s">
         <v>526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EE81A-B3F4-47DE-9841-E72857BFDC81}">
+  <dimension ref="A1:C157"/>
+  <sheetViews>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" t="str" cm="1">
+        <f t="array" ref="C1">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A1,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A2,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A3,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A4,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A5,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A6,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A7,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A8,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A9,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A10,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" t="str" cm="1">
+        <f t="array" ref="C11">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A11,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A12,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A13,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" t="str" cm="1">
+        <f t="array" ref="C14">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A14,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" t="str" cm="1">
+        <f t="array" ref="C15">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A15,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" t="str" cm="1">
+        <f t="array" ref="C16">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A16,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" t="str" cm="1">
+        <f t="array" ref="C17">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A17,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" t="str" cm="1">
+        <f t="array" ref="C18">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A18,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" t="str" cm="1">
+        <f t="array" ref="C19">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A19,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C20" t="str" cm="1">
+        <f t="array" ref="C20">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A20,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C21" t="str" cm="1">
+        <f t="array" ref="C21">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A21,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C22" t="str" cm="1">
+        <f t="array" ref="C22">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A22,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C23" t="str" cm="1">
+        <f t="array" ref="C23">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A23,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" t="str" cm="1">
+        <f t="array" ref="C24">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A24,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" t="str" cm="1">
+        <f t="array" ref="C25">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A25,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C26" t="str" cm="1">
+        <f t="array" ref="C26">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A26,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" t="str" cm="1">
+        <f t="array" ref="C27">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A27,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C28" t="str" cm="1">
+        <f t="array" ref="C28">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A28,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C29" t="str" cm="1">
+        <f t="array" ref="C29">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A29,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C30" t="str" cm="1">
+        <f t="array" ref="C30">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A30,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C31" t="str" cm="1">
+        <f t="array" ref="C31">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A31,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" t="str" cm="1">
+        <f t="array" ref="C32">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A32,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" t="str" cm="1">
+        <f t="array" ref="C33">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A33,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" t="str" cm="1">
+        <f t="array" ref="C34">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A34,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C35" t="str" cm="1">
+        <f t="array" ref="C35">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A35,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" t="str" cm="1">
+        <f t="array" ref="C36">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A36,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" t="str" cm="1">
+        <f t="array" ref="C37">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A37,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" t="str" cm="1">
+        <f t="array" ref="C38">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A38,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C39" t="str" cm="1">
+        <f t="array" ref="C39">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A39,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C40" t="str" cm="1">
+        <f t="array" ref="C40">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A40,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C41" t="str" cm="1">
+        <f t="array" ref="C41">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A41,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" t="str" cm="1">
+        <f t="array" ref="C42">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A42,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" t="str" cm="1">
+        <f t="array" ref="C43">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A43,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C44" t="str" cm="1">
+        <f t="array" ref="C44">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A44,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C45" t="str" cm="1">
+        <f t="array" ref="C45">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A45,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46" t="str" cm="1">
+        <f t="array" ref="C46">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A46,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C47" t="str" cm="1">
+        <f t="array" ref="C47">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A47,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C48" t="str" cm="1">
+        <f t="array" ref="C48">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A48,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C49" t="str" cm="1">
+        <f t="array" ref="C49">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A49,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" t="str" cm="1">
+        <f t="array" ref="C50">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A50,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C51" t="str" cm="1">
+        <f t="array" ref="C51">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A51,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C52" t="str" cm="1">
+        <f t="array" ref="C52">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A52,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C53" t="str" cm="1">
+        <f t="array" ref="C53">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A53,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C54" t="str" cm="1">
+        <f t="array" ref="C54">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A54,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C55" t="str" cm="1">
+        <f t="array" ref="C55">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A55,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C56" t="str" cm="1">
+        <f t="array" ref="C56">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A56,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C57" t="str" cm="1">
+        <f t="array" ref="C57">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A57,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C58" t="str" cm="1">
+        <f t="array" ref="C58">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A58,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" t="str" cm="1">
+        <f t="array" ref="C59">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A59,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C60" t="str" cm="1">
+        <f t="array" ref="C60">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A60,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C61" t="str" cm="1">
+        <f t="array" ref="C61">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A61,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C62" t="str" cm="1">
+        <f t="array" ref="C62">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A62,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" t="str" cm="1">
+        <f t="array" ref="C63">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A63,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C64" t="str" cm="1">
+        <f t="array" ref="C64">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A64,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C65" t="str" cm="1">
+        <f t="array" ref="C65">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A65,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66" t="str" cm="1">
+        <f t="array" ref="C66">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A66,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C67" t="str" cm="1">
+        <f t="array" ref="C67">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A67,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C68" t="str" cm="1">
+        <f t="array" ref="C68">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A68,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C69" t="str" cm="1">
+        <f t="array" ref="C69">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A69,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C70" t="str" cm="1">
+        <f t="array" ref="C70">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A70,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" t="str" cm="1">
+        <f t="array" ref="C71">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A71,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" t="str" cm="1">
+        <f t="array" ref="C72">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A72,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C73" t="str" cm="1">
+        <f t="array" ref="C73">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A73,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" t="str" cm="1">
+        <f t="array" ref="C74">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A74,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C75" t="str" cm="1">
+        <f t="array" ref="C75">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A75,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C76" t="str" cm="1">
+        <f t="array" ref="C76">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A76,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C77" t="str" cm="1">
+        <f t="array" ref="C77">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A77,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C78" t="str" cm="1">
+        <f t="array" ref="C78">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A78,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C79" t="str" cm="1">
+        <f t="array" ref="C79">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A79,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C80" t="str" cm="1">
+        <f t="array" ref="C80">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A80,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C81" t="str" cm="1">
+        <f t="array" ref="C81">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A81,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C82" t="str" cm="1">
+        <f t="array" ref="C82">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A82,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C83" t="str" cm="1">
+        <f t="array" ref="C83">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A83,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C84" t="str" cm="1">
+        <f t="array" ref="C84">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A84,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C85" t="str" cm="1">
+        <f t="array" ref="C85">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A85,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C86" t="str" cm="1">
+        <f t="array" ref="C86">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A86,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C87" t="str" cm="1">
+        <f t="array" ref="C87">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A87,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C88" t="str" cm="1">
+        <f t="array" ref="C88">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A88,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C89" t="str" cm="1">
+        <f t="array" ref="C89">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A89,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C90" t="str" cm="1">
+        <f t="array" ref="C90">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A90,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C91" t="str" cm="1">
+        <f t="array" ref="C91">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A91,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C92" t="str" cm="1">
+        <f t="array" ref="C92">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A92,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C93" t="str" cm="1">
+        <f t="array" ref="C93">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A93,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C94" t="str" cm="1">
+        <f t="array" ref="C94">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A94,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C95" t="str" cm="1">
+        <f t="array" ref="C95">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A95,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C96" t="str" cm="1">
+        <f t="array" ref="C96">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A96,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C97" t="str" cm="1">
+        <f t="array" ref="C97">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A97,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C98" t="str" cm="1">
+        <f t="array" ref="C98">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A98,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C99" t="str" cm="1">
+        <f t="array" ref="C99">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A99,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C100" t="str" cm="1">
+        <f t="array" ref="C100">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A100,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C101" t="str" cm="1">
+        <f t="array" ref="C101">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A101,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C102" t="str" cm="1">
+        <f t="array" ref="C102">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A102,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C103" t="str" cm="1">
+        <f t="array" ref="C103">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A103,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C104" t="str" cm="1">
+        <f t="array" ref="C104">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A104,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C105" t="str" cm="1">
+        <f t="array" ref="C105">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A105,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C106" t="str" cm="1">
+        <f t="array" ref="C106">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A106,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C107" t="str" cm="1">
+        <f t="array" ref="C107">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A107,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C108" t="str" cm="1">
+        <f t="array" ref="C108">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A108,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C109" t="str" cm="1">
+        <f t="array" ref="C109">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A109,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C110" t="str" cm="1">
+        <f t="array" ref="C110">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A110,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C111" t="str" cm="1">
+        <f t="array" ref="C111">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A111,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C112" t="str" cm="1">
+        <f t="array" ref="C112">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A112,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C113" t="str" cm="1">
+        <f t="array" ref="C113">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A113,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C114" t="str" cm="1">
+        <f t="array" ref="C114">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A114,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C115" t="str" cm="1">
+        <f t="array" ref="C115">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A115,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C116" t="str" cm="1">
+        <f t="array" ref="C116">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A116,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C117" t="str" cm="1">
+        <f t="array" ref="C117">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A117,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C118" t="str" cm="1">
+        <f t="array" ref="C118">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A118,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C119" t="str" cm="1">
+        <f t="array" ref="C119">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A119,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C120" t="str" cm="1">
+        <f t="array" ref="C120">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A120,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C121" t="str" cm="1">
+        <f t="array" ref="C121">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A121,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C122" t="str" cm="1">
+        <f t="array" ref="C122">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A122,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C123" t="str" cm="1">
+        <f t="array" ref="C123">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A123,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C124" t="str" cm="1">
+        <f t="array" ref="C124">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A124,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C125" t="str" cm="1">
+        <f t="array" ref="C125">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A125,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C126" t="str" cm="1">
+        <f t="array" ref="C126">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A126,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C127" t="str" cm="1">
+        <f t="array" ref="C127">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A127,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C128" t="str" cm="1">
+        <f t="array" ref="C128">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A128,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C129" t="str" cm="1">
+        <f t="array" ref="C129">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A129,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C130" t="str" cm="1">
+        <f t="array" ref="C130">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A130,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C131" t="str" cm="1">
+        <f t="array" ref="C131">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A131,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C132" t="str" cm="1">
+        <f t="array" ref="C132">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A132,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C133" t="str" cm="1">
+        <f t="array" ref="C133">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A133,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C134" t="str" cm="1">
+        <f t="array" ref="C134">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A134,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C135" t="str" cm="1">
+        <f t="array" ref="C135">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A135,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C136" t="str" cm="1">
+        <f t="array" ref="C136">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A136,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C137" t="str" cm="1">
+        <f t="array" ref="C137">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A137,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C138" t="str" cm="1">
+        <f t="array" ref="C138">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A138,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C139" t="str" cm="1">
+        <f t="array" ref="C139">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A139,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C140" t="str" cm="1">
+        <f t="array" ref="C140">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A140,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C141" t="str" cm="1">
+        <f t="array" ref="C141">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A141,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C142" t="str" cm="1">
+        <f t="array" ref="C142">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A142,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C143" t="str" cm="1">
+        <f t="array" ref="C143">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A143,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C144" t="str" cm="1">
+        <f t="array" ref="C144">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A144,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C145" t="str" cm="1">
+        <f t="array" ref="C145">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A145,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C146" t="str" cm="1">
+        <f t="array" ref="C146">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A146,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C147" t="str" cm="1">
+        <f t="array" ref="C147">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A147,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C148" t="str" cm="1">
+        <f t="array" ref="C148">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A148,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C149" t="str" cm="1">
+        <f t="array" ref="C149">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A149,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C150" t="str" cm="1">
+        <f t="array" ref="C150">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A150,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C151" t="str" cm="1">
+        <f t="array" ref="C151">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A151,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C152" t="str" cm="1">
+        <f t="array" ref="C152">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A152,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C153" t="str" cm="1">
+        <f t="array" ref="C153">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A153,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C154" t="str" cm="1">
+        <f t="array" ref="C154">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A154,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C155" t="str" cm="1">
+        <f t="array" ref="C155">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A155,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C156" t="str" cm="1">
+        <f t="array" ref="C156">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A156,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C157" t="str" cm="1">
+        <f t="array" ref="C157">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A157,Main_240213!$A$2:$A$8004,1,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>